--- a/medicine/Médecine vétérinaire/Sebastián_Jiménez/Sebastián_Jiménez.xlsx
+++ b/medicine/Médecine vétérinaire/Sebastián_Jiménez/Sebastián_Jiménez.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sebasti%C3%A1n_Jim%C3%A9nez</t>
+          <t>Sebastián_Jiménez</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,40 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sebastián Jiménez Evans (né le 7 avril 1971 à Santiago) est un vétérinaire, présentateur de télévision et animateur de radio chilien.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Sebasti%C3%A1n_Jim%C3%A9nez</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Portail:Médecine vétérinaire/Articles liés</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Sebasti%C3%A1n_Jim%C3%A9nez</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Télévision</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Émissions</t>
         </is>
       </c>
     </row>
